--- a/tests/artefacts/testdata_0spend.xlsx
+++ b/tests/artefacts/testdata_0spend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/odi/liberia/aims/tests/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E8BEE-A1DE-7F44-9E1D-7B8D33D4DEC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162B3C2-7433-7947-9B56-3E185F10AD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="-18780" windowWidth="27640" windowHeight="16020" xr2:uid="{0D2C3C09-8642-F64A-A841-4B349051A884}"/>
+    <workbookView xWindow="13220" yWindow="-16660" windowWidth="27640" windowHeight="16020" xr2:uid="{0D2C3C09-8642-F64A-A841-4B349051A884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,24 +105,9 @@
     <t>Power to the People</t>
   </si>
   <si>
-    <t>2018 Q3 (D)</t>
-  </si>
-  <si>
-    <t>2018 Q2 (D)</t>
-  </si>
-  <si>
-    <t>2018 Q1 (D)</t>
-  </si>
-  <si>
-    <t>2019 Q1 (D)</t>
-  </si>
-  <si>
     <t>Activity Description</t>
   </si>
   <si>
-    <t>FY18/19 (MTEF)</t>
-  </si>
-  <si>
     <t>Domestic/External</t>
   </si>
   <si>
@@ -130,6 +115,21 @@
   </si>
   <si>
     <t>Zero spend project</t>
+  </si>
+  <si>
+    <t>FY2019 Q1 (D)</t>
+  </si>
+  <si>
+    <t>FY2018 Q3 (D)</t>
+  </si>
+  <si>
+    <t>FY2018 Q2 (D)</t>
+  </si>
+  <si>
+    <t>FY2018 Q1 (D)</t>
+  </si>
+  <si>
+    <t>FY2018 (MTEF)</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75600FF7-6925-5A4F-B4D6-2E51A7284D2B}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -587,19 +587,19 @@
         <v>21</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -607,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
